--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3936.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3936.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.205763683506245</v>
+        <v>0.3854527771472931</v>
       </c>
       <c r="B1">
-        <v>1.727931249622104</v>
+        <v>1.255445003509521</v>
       </c>
       <c r="C1">
-        <v>3.274584198866466</v>
+        <v>6.47393274307251</v>
       </c>
       <c r="D1">
-        <v>6.791563150858066</v>
+        <v>1.739359498023987</v>
       </c>
       <c r="E1">
-        <v>1.75812100489375</v>
+        <v>1.64878237247467</v>
       </c>
     </row>
   </sheetData>
